--- a/data/trans_dic/P1401-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1401-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.003557804818760263</v>
+        <v>0.003018616331212101</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00590754362489289</v>
+        <v>0.005701010273974961</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01230439275604411</v>
+        <v>0.01227896840860869</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01424092484665872</v>
+        <v>0.01427443660269682</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.006127727646874108</v>
+        <v>0.005824670363312794</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01186297114947858</v>
+        <v>0.01263156058369159</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01018911181954653</v>
+        <v>0.01054379636185202</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.00686020518148399</v>
+        <v>0.007343117245996121</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01432251454063626</v>
+        <v>0.01449272009280452</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01459654900569022</v>
+        <v>0.01486092847055132</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.018276873931024</v>
+        <v>0.0173989170376687</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03941684695704865</v>
+        <v>0.04120570587970236</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03376206781997299</v>
+        <v>0.033465580757611</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01926964081912949</v>
+        <v>0.01879289200807329</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02911074461537439</v>
+        <v>0.03050907818388211</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02110541245171126</v>
+        <v>0.02157436112014322</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01610560356561263</v>
+        <v>0.01552415867849552</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0290271326447714</v>
+        <v>0.02899776825840681</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008372665541171347</v>
+        <v>0.008181072286839543</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002072312635750655</v>
+        <v>0.002637080870809227</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01458701346514424</v>
+        <v>0.01439170360160513</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01417538665303941</v>
+        <v>0.01352044489288849</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01502663411601457</v>
+        <v>0.0143260374035888</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01784907121815674</v>
+        <v>0.01844131081757774</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01295301659324085</v>
+        <v>0.01348588228239205</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01032327977124606</v>
+        <v>0.01023628191233454</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01833861848617169</v>
+        <v>0.01829287894611266</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02798878842736746</v>
+        <v>0.02770313578829951</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01312788036385837</v>
+        <v>0.0121122008002161</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03181656201341215</v>
+        <v>0.030660623558917</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03331372401804211</v>
+        <v>0.0338365542783019</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03525182622732861</v>
+        <v>0.03549045163171202</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03215341795554249</v>
+        <v>0.0332158997551262</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02646135578298022</v>
+        <v>0.0269885975705223</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02254269400034818</v>
+        <v>0.02161730904437625</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02904235961317609</v>
+        <v>0.02906993652527054</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.01073169290910233</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.01931944204199112</v>
+        <v>0.01931944204199111</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.01293532686139773</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.007927066092215652</v>
+        <v>0.007106677115100537</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004916609843711716</v>
+        <v>0.004804017553281142</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01289862493799215</v>
+        <v>0.01297734387848871</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.006786736953687793</v>
+        <v>0.006649296881013515</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01568057087038539</v>
+        <v>0.0157916085591171</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0147613410208231</v>
+        <v>0.01481551540686226</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.00880562016074371</v>
+        <v>0.00885708116491446</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01227867235350571</v>
+        <v>0.01199502684511999</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01548970112589985</v>
+        <v>0.01564865601982561</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02400401182673062</v>
+        <v>0.02304505619269304</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02043347300537007</v>
+        <v>0.0196002649311507</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.029587900434813</v>
+        <v>0.02884762225538849</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0222196807414312</v>
+        <v>0.02151542063630451</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0415270264267396</v>
+        <v>0.04219311436828349</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02812673151901336</v>
+        <v>0.02882351954094778</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01953343996649158</v>
+        <v>0.02047160522025654</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02593247772029439</v>
+        <v>0.02559526628934967</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02565785947734992</v>
+        <v>0.02582284016619734</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002060856438007748</v>
+        <v>0.002067407244160189</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001769609185110299</v>
+        <v>0.001771371901069038</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0146566728523469</v>
+        <v>0.01524365714480944</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01119647486993482</v>
+        <v>0.01154400267871997</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0154784328307</v>
+        <v>0.01479542117166228</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01939762030079893</v>
+        <v>0.01970998617079365</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.00852843387904376</v>
+        <v>0.008356676190142047</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01009640386534561</v>
+        <v>0.01053499374975057</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01872049430551329</v>
+        <v>0.01923962227840581</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01974328859620659</v>
+        <v>0.0200207829080587</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01732935582819286</v>
+        <v>0.01585591310703392</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03319868770456611</v>
+        <v>0.03424753194429325</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03949830105252635</v>
+        <v>0.04044838262748068</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04913682963225374</v>
+        <v>0.04890869731729256</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03440425908400733</v>
+        <v>0.03527605492811232</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02346180124890357</v>
+        <v>0.02386337723032824</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02761775977681652</v>
+        <v>0.02929918512529551</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03081538672139354</v>
+        <v>0.03135890945768811</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008246983901386893</v>
+        <v>0.008144626313146559</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.00633011138010454</v>
+        <v>0.006199949128055903</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0175137948922952</v>
+        <v>0.01725182969297174</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01564768890045472</v>
+        <v>0.01532091153118713</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01547181950982074</v>
+        <v>0.01556889967656224</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01969508636942766</v>
+        <v>0.0195548955472522</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01297321589104122</v>
+        <v>0.0129471864448234</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01190746939176719</v>
+        <v>0.01206429545804773</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01939163232041725</v>
+        <v>0.0196484715905696</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01621859316192737</v>
+        <v>0.01595957411826586</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01258393226215187</v>
+        <v>0.01229407202024447</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02600056612875111</v>
+        <v>0.02632527399699397</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02572671133195831</v>
+        <v>0.02479477138614508</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02566547008231911</v>
+        <v>0.02626257238363906</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02722895843959771</v>
+        <v>0.02708993118474152</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01939163064587337</v>
+        <v>0.01903501825940428</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0180373357971781</v>
+        <v>0.01785772557869489</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02538114358721686</v>
+        <v>0.02556175183050417</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3714</v>
+        <v>3151</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6664</v>
+        <v>6431</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6093</v>
+        <v>6080</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15931</v>
+        <v>15968</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7718</v>
+        <v>7337</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7373</v>
+        <v>7851</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>22035</v>
+        <v>22802</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>16379</v>
+        <v>17532</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>15994</v>
+        <v>16184</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15238</v>
+        <v>15514</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>20616</v>
+        <v>19626</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19518</v>
+        <v>20403</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>37768</v>
+        <v>37436</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>24271</v>
+        <v>23671</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>18093</v>
+        <v>18962</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>45642</v>
+        <v>46656</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>38453</v>
+        <v>37065</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>32414</v>
+        <v>32381</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8181</v>
+        <v>7994</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1883</v>
+        <v>2397</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13989</v>
+        <v>13802</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>15484</v>
+        <v>14769</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>15124</v>
+        <v>14419</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>19904</v>
+        <v>20565</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>26805</v>
+        <v>27908</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>19772</v>
+        <v>19606</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>38037</v>
+        <v>37942</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>27347</v>
+        <v>27068</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11931</v>
+        <v>11008</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>30513</v>
+        <v>29404</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>36389</v>
+        <v>36961</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>35480</v>
+        <v>35720</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>35856</v>
+        <v>37040</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>54759</v>
+        <v>55850</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>43176</v>
+        <v>41404</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>60239</v>
+        <v>60296</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7016</v>
+        <v>6290</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4050</v>
+        <v>3957</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13484</v>
+        <v>13566</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5944</v>
+        <v>5823</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>12091</v>
+        <v>12176</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>15438</v>
+        <v>15495</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>15506</v>
+        <v>15597</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>19582</v>
+        <v>19130</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>32392</v>
+        <v>32725</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21246</v>
+        <v>20398</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16832</v>
+        <v>16146</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>30930</v>
+        <v>30156</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>19460</v>
+        <v>18843</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>32020</v>
+        <v>32533</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>29417</v>
+        <v>30145</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>34397</v>
+        <v>36049</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>41358</v>
+        <v>40820</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>53656</v>
+        <v>54001</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14290</v>
+        <v>14862</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5069</v>
+        <v>5226</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7580</v>
+        <v>7245</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>17618</v>
+        <v>17902</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>8151</v>
+        <v>7987</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>10060</v>
+        <v>10497</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>35255</v>
+        <v>36233</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9931</v>
+        <v>10071</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8781</v>
+        <v>8034</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>32368</v>
+        <v>33391</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>17882</v>
+        <v>18312</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>24062</v>
+        <v>23950</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>31248</v>
+        <v>32040</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>22424</v>
+        <v>22808</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>27518</v>
+        <v>29194</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>58033</v>
+        <v>59056</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>28115</v>
+        <v>27766</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>21315</v>
+        <v>20877</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>60852</v>
+        <v>59942</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>55385</v>
+        <v>54229</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>54566</v>
+        <v>54908</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>72690</v>
+        <v>72173</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>90146</v>
+        <v>89966</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>82091</v>
+        <v>83172</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>138946</v>
+        <v>140787</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>55292</v>
+        <v>54409</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>42374</v>
+        <v>41398</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>90339</v>
+        <v>91468</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>91060</v>
+        <v>87761</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>90517</v>
+        <v>92623</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>100496</v>
+        <v>99983</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>134746</v>
+        <v>132268</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>124351</v>
+        <v>123112</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>181863</v>
+        <v>183157</v>
       </c>
     </row>
     <row r="24">
